--- a/Maldicion_dimensionalidad/Datos tabulados.xlsx
+++ b/Maldicion_dimensionalidad/Datos tabulados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UCSP\CCOMP\2021-02\EDA\Lab_git hub\EDA_2021-02\Maldicion_dimensionalidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A909AFB-A123-4CF4-B6F9-47714CB08E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6AC905-A822-4868-B9B5-9BCEEC4EC0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>RATIO DE DISTANCIA</t>
   </si>
   <si>
     <t>DIMENSIONES</t>
+  </si>
+  <si>
+    <t>TIEMPO</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -182,17 +185,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -201,12 +219,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +229,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,7 +1045,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1224,9 +1239,431 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>Tiempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" baseline="0"/>
+              <a:t> por dimensiones (s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7D3-41CE-9F95-865C6112D625}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1276437247"/>
+        <c:axId val="1276427263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1276437247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276427263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1276427263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276437247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1393,6 +1830,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1751,15 +2691,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1779,6 +2719,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F42423-8812-42AC-8736-DACB4EB7E2D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2050,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2074,27 +3050,27 @@
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>5</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>10</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <v>15</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <v>20</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -2120,7 +3096,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1">
         <v>0.9</v>
       </c>
@@ -2144,7 +3120,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1">
         <v>0.8</v>
       </c>
@@ -2168,7 +3144,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1">
         <v>0.7</v>
       </c>
@@ -2192,7 +3168,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1">
         <v>0.6</v>
       </c>
@@ -2216,7 +3192,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1">
         <v>0.5</v>
       </c>
@@ -2240,7 +3216,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="1">
         <v>0.4</v>
       </c>
@@ -2264,7 +3240,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1">
         <v>0.3</v>
       </c>
@@ -2288,7 +3264,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1">
         <v>0.19999999999999901</v>
       </c>
@@ -2312,7 +3288,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1">
         <v>9.9999999999999103E-2</v>
       </c>
@@ -2336,7 +3312,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1">
         <v>0</v>
       </c>
@@ -2357,6 +3333,29 @@
       </c>
       <c r="I14">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +3363,7 @@
     <mergeCell ref="B4:B14"/>
     <mergeCell ref="D2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:I14">
+  <conditionalFormatting sqref="D4:I14 D16:I16">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2393,7 +3392,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D4:I14</xm:sqref>
+          <xm:sqref>D4:I14 D16:I16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
